--- a/medicine/Enfance/Susie_Morgenstern/Susie_Morgenstern.xlsx
+++ b/medicine/Enfance/Susie_Morgenstern/Susie_Morgenstern.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Susie Morgenstern, née Hoch le 18 mars 1945 à Newark dans l'État du New Jersey, est une auteure américaine et française de littérature pour la jeunesse.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Susie Morgenstern naît le 18 mars 1945 à Newark dans le New Jersey. Elle a deux sœurs aînées, Sandra et Effie, respectivement 8 ans et 5 ans plus âgées qu'elle. Leur père, Meyer Hoch, est né en Pologne ; leur mère, Sylvia Needleman, est née à Brooklyn, de parents russes. Tous deux sont juifs et leur union est un mariage arrangé[1],[2].  
-Susie Morgenstern fait ses études aux États-Unis, en Israël et en France, où elle arrive à l'âge de 22 ans[3] et soutient une thèse de doctorat en littérature comparée (Les fantasmes chez l'écrivain juif contemporain). 
-Elle se marie avec le mathématicien Jacques Morgenstern en 1967 et ils s'installent à Nice (il décédera en 1994, après avoir été longtemps le premier lecteur de ses manuscrits)[4],[5].
-Elle commence sa carrière en tant qu'auteure (en langue française) et illustratrice pour la jeunesse. Elle publie, notamment, à l'École des loisirs, des livres devenus des classiques de la littérature de jeunesse : La Sixième, La Première Fois que j'ai eu seize ans, Confessions d'une grosse patate ou Lettres d'amour de 0 à 10[4].
-Elle enseigne également l'anglais, jusqu'en 2005, à l'université Nice-Sophia-Antipolis[4].
-Susie Morgenstern se dit « furieusement amoureuse » de la France. Elle conçoit l'écriture comme ce qui l'a aidée à survivre[3]. Elle publie en 2021 un récit autobiographique, Mes 18 exils[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Susie Morgenstern naît le 18 mars 1945 à Newark dans le New Jersey. Elle a deux sœurs aînées, Sandra et Effie, respectivement 8 ans et 5 ans plus âgées qu'elle. Leur père, Meyer Hoch, est né en Pologne ; leur mère, Sylvia Needleman, est née à Brooklyn, de parents russes. Tous deux sont juifs et leur union est un mariage arrangé,.  
+Susie Morgenstern fait ses études aux États-Unis, en Israël et en France, où elle arrive à l'âge de 22 ans et soutient une thèse de doctorat en littérature comparée (Les fantasmes chez l'écrivain juif contemporain). 
+Elle se marie avec le mathématicien Jacques Morgenstern en 1967 et ils s'installent à Nice (il décédera en 1994, après avoir été longtemps le premier lecteur de ses manuscrits),.
+Elle commence sa carrière en tant qu'auteure (en langue française) et illustratrice pour la jeunesse. Elle publie, notamment, à l'École des loisirs, des livres devenus des classiques de la littérature de jeunesse : La Sixième, La Première Fois que j'ai eu seize ans, Confessions d'une grosse patate ou Lettres d'amour de 0 à 10.
+Elle enseigne également l'anglais, jusqu'en 2005, à l'université Nice-Sophia-Antipolis.
+Susie Morgenstern se dit « furieusement amoureuse » de la France. Elle conçoit l'écriture comme ce qui l'a aidée à survivre. Elle publie en 2021 un récit autobiographique, Mes 18 exils.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’Alphabet hébreu (1977)
@@ -572,7 +588,7 @@
 La Plage en béton (1989)
 Cucul la praline (1989)
 Europe Alibi (1990)
-Tonton Couscous (1990), illustrations d'Anne Tonnac[7]
+Tonton Couscous (1990), illustrations d'Anne Tonnac
 La Première Fois que j'ai eu seize ans (1990), adapté au cinéma sous le titre La Première Fois que j'ai eu 20 ans
 Margot Mégalo (1991)
 Même les princesses doivent aller à l'école (1991)
@@ -638,9 +654,9 @@
 iM@mie (2015)
 Espionnage intime (2016)
 Avec Lilas Nord : La Famille Trop d’filles, Mon livre d’amitié (2017)
-Be Happy ! Mes plus belles comédies musicales (2018) (Coup de coeur Jeune Public automne 2018 de l'Académie Charles-Cros)[8].
+Be Happy ! Mes plus belles comédies musicales (2018) (Coup de coeur Jeune Public automne 2018 de l'Académie Charles-Cros).
 Mes 18 exils (2021) (autobiographie)
-Soutif (2021) illustré par Catel Muller[9]
+Soutif (2021) illustré par Catel Muller
 </t>
         </is>
       </c>
@@ -669,10 +685,12 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur (Décret du 25 mars 2016[10])
- Officier de l'ordre des Arts et des Lettres (Arrêté du 17 janvier 2013[11])</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur (Décret du 25 mars 2016)
+ Officier de l'ordre des Arts et des Lettres (Arrêté du 17 janvier 2013)</t>
         </is>
       </c>
     </row>
